--- a/テンプレート/【改修中テンプレ】リリース内表 - コピー.xlsx
+++ b/テンプレート/【改修中テンプレ】リリース内表 - コピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6019DB-1FB3-45C3-BEE4-6174D0948C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92A72B-3974-429B-BA23-7963EEB02F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15915" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="65">
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
@@ -596,38 +596,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>調査 ランキング名 評価項目別ランキング</t>
-    </r>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2025年 オリコン顧客満足度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDPゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDPゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>調査 ランキング名 部門別ランキング</t>
     </r>
     <rPh sb="24" eb="25">
@@ -677,13 +645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング名 (回答者数：x,xxx名)</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>2025年 オリコン顧客満足度</t>
     </r>
@@ -770,9 +731,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング名 (回答者数：x,xxx名)</t>
-  </si>
-  <si>
     <r>
       <t>　　　　　2025年 オリコン顧客満足度</t>
     </r>
@@ -799,6 +757,62 @@
       </rPr>
       <t>調査 総合ランキング</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯キャリア (回答者数：8,464名)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天モバイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docomo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SoftBank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合 (回答者数：8,464名)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入手続き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年 オリコン顧客満足度(R)調査 携帯キャリア 評価項目別ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンペーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期設定のしやすさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信速度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金プラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末のラインナップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用料金</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2205,6 +2219,30 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2229,47 +2267,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,12 +2299,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,29 +2319,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2340,34 +2341,122 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2404,70 +2493,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2475,60 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3165,42 +3179,42 @@
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173"/>
       <c r="B2" s="173"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
       <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="173"/>
       <c r="B3" s="173"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="293" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="294"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291"/>
-      <c r="H3" s="291"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="197"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
       <c r="I3" s="173"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="295" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="295"/>
-      <c r="E4" s="296"/>
+      <c r="C4" s="198" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3222,10 +3236,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E6" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3235,10 +3249,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3248,10 +3262,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E8" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3261,10 +3275,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="179" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E9" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3282,11 +3296,11 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="192"/>
-      <c r="E11" s="193"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="201"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="180"/>
@@ -3357,49 +3371,49 @@
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="D1" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
+      <c r="D1" s="202" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173"/>
       <c r="B2" s="173"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
       <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="173"/>
       <c r="B3" s="173"/>
       <c r="C3" s="173"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
       <c r="I3" s="173"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="198" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199"/>
+      <c r="C4" s="206" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="198" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="199"/>
+      <c r="G4" s="206" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="206"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3431,20 +3445,20 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E6" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
       <c r="F6" s="177"/>
       <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I6" s="17">
-        <v>0</v>
+        <v>73.260000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3454,20 +3468,20 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="F7" s="177"/>
       <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I7" s="19">
-        <v>0</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3477,20 +3491,20 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E8" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="F8" s="177"/>
       <c r="G8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I8" s="21">
-        <v>0</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3500,20 +3514,20 @@
         <v>19</v>
       </c>
       <c r="D9" s="179" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E9" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F9" s="178"/>
       <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="179" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I9" s="23">
-        <v>0</v>
+        <v>69.33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3530,7 +3544,7 @@
       </c>
       <c r="F10" s="178"/>
       <c r="G10" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="179" t="s">
         <v>20</v>
@@ -3541,17 +3555,17 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="192"/>
-      <c r="E11" s="193"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="201"/>
       <c r="F11" s="141"/>
-      <c r="G11" s="192" t="s">
+      <c r="G11" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="192"/>
-      <c r="I11" s="193"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="201"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="180"/>
@@ -3657,72 +3671,72 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="140"/>
-      <c r="I2" s="192" t="s">
+      <c r="I2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="193"/>
+      <c r="J2" s="201"/>
       <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="208" t="s">
+      <c r="M2" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="209"/>
+      <c r="N2" s="237"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
       <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="202" t="s">
+      <c r="G3" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="200" t="s">
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="201"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="211"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="239"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
       <c r="E4" s="119"/>
       <c r="F4" s="146"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="213"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="241"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="71"/>
       <c r="F5" s="141"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="203"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="231"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3734,10 +3748,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="205"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="233"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3749,8 +3763,8 @@
       <c r="I7" s="184"/>
       <c r="J7" s="185"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
+      <c r="M7" s="219"/>
+      <c r="N7" s="219"/>
       <c r="O7" s="51"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
@@ -3762,31 +3776,31 @@
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
       <c r="C8" s="183" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="182"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="186"/>
       <c r="I8" s="190" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="187"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="220"/>
       <c r="O8" s="96"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="226"/>
-      <c r="T8" s="227"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="209"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="144"/>
       <c r="E9" s="73"/>
@@ -3794,18 +3808,18 @@
       <c r="G9" s="27"/>
       <c r="H9" s="188"/>
       <c r="I9" s="191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="189"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="216"/>
-      <c r="S9" s="216"/>
-      <c r="T9" s="217"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="211"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -3819,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="237" t="s">
+      <c r="F10" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="238"/>
+      <c r="G10" s="213"/>
       <c r="H10" s="55" t="s">
         <v>12</v>
       </c>
@@ -3848,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="34"/>
@@ -3862,10 +3876,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J11" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>37</v>
@@ -3886,10 +3900,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="35"/>
@@ -3900,10 +3914,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>38</v>
@@ -3924,10 +3938,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D13" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="36"/>
@@ -3938,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J13" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="L13" s="85"/>
       <c r="M13" s="50"/>
@@ -3959,10 +3973,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D14" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="37"/>
@@ -3973,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="112" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J14" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="47"/>
@@ -3990,11 +4004,11 @@
     </row>
     <row r="15" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="25"/>
       <c r="F15" s="37"/>
       <c r="G15" s="32">
@@ -4027,11 +4041,11 @@
       <c r="E16" s="25"/>
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="221" t="s">
+      <c r="H16" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="222"/>
-      <c r="J16" s="223"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="244"/>
       <c r="L16" s="96"/>
       <c r="M16" s="123"/>
       <c r="N16" s="104"/>
@@ -4066,8 +4080,8 @@
     <row r="18" spans="1:20" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="96"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
       <c r="E18" s="142"/>
       <c r="F18" s="142"/>
       <c r="G18" s="142"/>
@@ -4086,13 +4100,13 @@
     </row>
     <row r="19" spans="1:20" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="234"/>
       <c r="E19" s="25"/>
       <c r="F19" s="87"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="201"/>
       <c r="L19" s="96"/>
       <c r="M19" s="123"/>
       <c r="N19" s="104"/>
@@ -4108,10 +4122,10 @@
       <c r="D20" s="144"/>
       <c r="E20" s="119"/>
       <c r="F20" s="87"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="193"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="201"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="106"/>
@@ -4128,10 +4142,10 @@
       <c r="D21" s="51"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="205"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="232"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="233"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="107"/>
@@ -4151,12 +4165,12 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="236"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="217"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="218"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
@@ -4169,8 +4183,8 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
       <c r="O23" s="51"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
@@ -4186,18 +4200,18 @@
       <c r="E24" s="96"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="227"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209"/>
       <c r="L24" s="99"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
       <c r="O24" s="96"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="226"/>
-      <c r="S24" s="226"/>
-      <c r="T24" s="227"/>
+      <c r="R24" s="208"/>
+      <c r="S24" s="208"/>
+      <c r="T24" s="209"/>
     </row>
     <row r="25" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -4207,18 +4221,18 @@
       <c r="E25" s="100"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="217"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="211"/>
       <c r="L25" s="100"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
       <c r="O25" s="100"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
-      <c r="R25" s="216"/>
-      <c r="S25" s="216"/>
-      <c r="T25" s="217"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="211"/>
     </row>
     <row r="26" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
@@ -4306,9 +4320,9 @@
     </row>
     <row r="30" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="228"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="230"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="224"/>
       <c r="E30" s="104"/>
       <c r="F30" s="87"/>
       <c r="G30" s="88"/>
@@ -4332,10 +4346,10 @@
       <c r="D31" s="107"/>
       <c r="E31" s="104"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="229"/>
-      <c r="J31" s="229"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
       <c r="K31" s="111"/>
       <c r="L31" s="85"/>
       <c r="M31" s="47"/>
@@ -4386,14 +4400,14 @@
     </row>
     <row r="34" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="58"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="232"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="233"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="227"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
       <c r="N34" s="51"/>
@@ -4407,8 +4421,8 @@
     <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="99"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="58"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
@@ -4416,8 +4430,8 @@
       <c r="I35" s="97"/>
       <c r="J35" s="109"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="218"/>
-      <c r="N35" s="218"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
       <c r="O35" s="58"/>
       <c r="P35" s="97"/>
       <c r="Q35" s="97"/>
@@ -4428,23 +4442,23 @@
     <row r="36" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="100"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="96"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="227"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
       <c r="L36" s="99"/>
-      <c r="M36" s="219"/>
-      <c r="N36" s="219"/>
+      <c r="M36" s="220"/>
+      <c r="N36" s="220"/>
       <c r="O36" s="96"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="226"/>
-      <c r="S36" s="226"/>
-      <c r="T36" s="227"/>
+      <c r="R36" s="208"/>
+      <c r="S36" s="208"/>
+      <c r="T36" s="209"/>
     </row>
     <row r="37" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -4454,18 +4468,18 @@
       <c r="E37" s="100"/>
       <c r="F37" s="101"/>
       <c r="G37" s="101"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="217"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="211"/>
       <c r="L37" s="100"/>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
+      <c r="M37" s="221"/>
+      <c r="N37" s="221"/>
       <c r="O37" s="100"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
-      <c r="R37" s="216"/>
-      <c r="S37" s="216"/>
-      <c r="T37" s="217"/>
+      <c r="R37" s="210"/>
+      <c r="S37" s="210"/>
+      <c r="T37" s="211"/>
     </row>
     <row r="38" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
@@ -4642,8 +4656,8 @@
     </row>
     <row r="46" spans="1:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="219"/>
       <c r="E46" s="51"/>
       <c r="F46" s="71"/>
       <c r="G46" s="71"/>
@@ -4653,18 +4667,18 @@
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="234"/>
-      <c r="P46" s="235"/>
-      <c r="Q46" s="235"/>
-      <c r="R46" s="235"/>
-      <c r="S46" s="235"/>
-      <c r="T46" s="236"/>
+      <c r="O46" s="216"/>
+      <c r="P46" s="217"/>
+      <c r="Q46" s="217"/>
+      <c r="R46" s="217"/>
+      <c r="S46" s="217"/>
+      <c r="T46" s="218"/>
       <c r="U46" s="51"/>
     </row>
     <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="99"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="51"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -4672,8 +4686,8 @@
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="218"/>
-      <c r="N47" s="218"/>
+      <c r="M47" s="219"/>
+      <c r="N47" s="219"/>
       <c r="O47" s="51"/>
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
@@ -4685,24 +4699,24 @@
     <row r="48" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="100"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
       <c r="E48" s="96"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
-      <c r="H48" s="226"/>
-      <c r="I48" s="226"/>
-      <c r="J48" s="227"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="209"/>
       <c r="K48" s="2"/>
       <c r="L48" s="99"/>
-      <c r="M48" s="219"/>
-      <c r="N48" s="219"/>
+      <c r="M48" s="220"/>
+      <c r="N48" s="220"/>
       <c r="O48" s="96"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="226"/>
-      <c r="S48" s="226"/>
-      <c r="T48" s="227"/>
+      <c r="R48" s="208"/>
+      <c r="S48" s="208"/>
+      <c r="T48" s="209"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4713,19 +4727,19 @@
       <c r="E49" s="100"/>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="216"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="217"/>
+      <c r="H49" s="210"/>
+      <c r="I49" s="210"/>
+      <c r="J49" s="211"/>
       <c r="K49" s="2"/>
       <c r="L49" s="100"/>
-      <c r="M49" s="220"/>
-      <c r="N49" s="220"/>
+      <c r="M49" s="221"/>
+      <c r="N49" s="221"/>
       <c r="O49" s="100"/>
       <c r="P49" s="101"/>
       <c r="Q49" s="101"/>
-      <c r="R49" s="216"/>
-      <c r="S49" s="216"/>
-      <c r="T49" s="217"/>
+      <c r="R49" s="210"/>
+      <c r="S49" s="210"/>
+      <c r="T49" s="211"/>
       <c r="U49" s="51"/>
     </row>
     <row r="50" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4975,21 +4989,18 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="O46:T46"/>
-    <mergeCell ref="M35:N37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G3:J6"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M7:N9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="G20:J21"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C46:D48"/>
@@ -5006,18 +5017,21 @@
     <mergeCell ref="M23:N25"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="R24:T24"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G3:J6"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M7:N9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="O46:T46"/>
+    <mergeCell ref="M35:N37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F2:F3 F11:F17">
@@ -5156,13 +5170,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="148"/>
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="265"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="255"/>
       <c r="K2" s="149"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -5170,17 +5184,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="272"/>
+      <c r="C3" s="263"/>
       <c r="D3" s="6"/>
       <c r="E3" s="148"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="267"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="258"/>
       <c r="K3" s="149"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -5192,11 +5206,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="148"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="270"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="261"/>
       <c r="K4" s="149"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -5239,7 +5253,7 @@
     </row>
     <row r="7" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="153"/>
@@ -5258,25 +5272,25 @@
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="91" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
       <c r="E8" s="93"/>
       <c r="F8" s="91" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="93"/>
       <c r="J8" s="91" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="92"/>
       <c r="M8" s="93"/>
       <c r="N8" s="91" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="O8" s="92"/>
       <c r="P8" s="92"/>
@@ -5331,40 +5345,40 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D10" s="17">
-        <v>0</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H10" s="17">
-        <v>0</v>
+        <v>71.77</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L10" s="17">
-        <v>0</v>
+        <v>72.66</v>
       </c>
       <c r="M10" s="48"/>
       <c r="N10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="P10" s="17">
-        <v>0</v>
+        <v>71.52</v>
       </c>
       <c r="S10" s="40"/>
       <c r="T10" s="41"/>
@@ -5376,40 +5390,40 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D11" s="19">
-        <v>0</v>
+        <v>70.42</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H11" s="19">
-        <v>0</v>
+        <v>66.22</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L11" s="19">
-        <v>0</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="P11" s="19">
-        <v>0</v>
+        <v>71.22</v>
       </c>
       <c r="T11" s="1"/>
     </row>
@@ -5419,40 +5433,40 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D12" s="21">
-        <v>0</v>
+        <v>69.88</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H12" s="21">
-        <v>0</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L12" s="21">
-        <v>0</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="P12" s="21">
-        <v>0</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="T12" s="1"/>
     </row>
@@ -5478,19 +5492,19 @@
     <row r="14" spans="1:21" s="79" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="91" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
       <c r="E14" s="78"/>
       <c r="F14" s="74" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
       <c r="I14" s="78"/>
       <c r="J14" s="91" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="K14" s="92"/>
       <c r="L14" s="92"/>
@@ -5553,30 +5567,30 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D16" s="17">
-        <v>0</v>
+        <v>73.34</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H16" s="17">
-        <v>0</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L16" s="17">
-        <v>0</v>
+        <v>69.56</v>
       </c>
       <c r="M16" s="48"/>
       <c r="N16" s="10" t="s">
@@ -5597,30 +5611,30 @@
         <v>4</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D17" s="19">
-        <v>0</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H17" s="19">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="L17" s="19">
-        <v>0</v>
+        <v>65.66</v>
       </c>
       <c r="M17" s="48"/>
       <c r="N17" s="12" t="s">
@@ -5639,30 +5653,30 @@
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D18" s="21">
-        <v>0</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H18" s="21">
-        <v>0</v>
+        <v>64.17</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L18" s="21">
-        <v>0</v>
+        <v>65.48</v>
       </c>
       <c r="M18" s="48"/>
       <c r="N18" s="11" t="s">
@@ -5682,13 +5696,13 @@
       <c r="I19" s="117"/>
       <c r="J19" s="115"/>
       <c r="K19" s="126"/>
-      <c r="L19" s="257" t="s">
+      <c r="L19" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="257"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="258"/>
+      <c r="M19" s="247"/>
+      <c r="N19" s="247"/>
+      <c r="O19" s="247"/>
+      <c r="P19" s="248"/>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -5722,7 +5736,7 @@
     <row r="22" spans="1:24" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -5733,14 +5747,14 @@
     </row>
     <row r="23" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67"/>
-      <c r="B23" s="241" t="s">
+      <c r="B23" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="242"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="242"/>
+      <c r="F23" s="264"/>
+      <c r="G23" s="265"/>
       <c r="H23" s="68"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
@@ -5776,8 +5790,8 @@
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="66"/>
-      <c r="V24" s="239"/>
-      <c r="W24" s="240"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="267"/>
       <c r="X24" s="68"/>
     </row>
     <row r="25" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5960,10 +5974,10 @@
     </row>
     <row r="29" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="241" t="s">
+      <c r="B29" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="242"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="104"/>
       <c r="E29" s="58"/>
       <c r="F29" s="46"/>
@@ -6207,11 +6221,11 @@
       <c r="K35" s="50"/>
       <c r="L35" s="86"/>
       <c r="M35" s="48"/>
-      <c r="N35" s="259" t="s">
+      <c r="N35" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="260"/>
-      <c r="P35" s="261"/>
+      <c r="O35" s="250"/>
+      <c r="P35" s="251"/>
       <c r="R35" s="46"/>
       <c r="S35" s="50"/>
       <c r="T35" s="48"/>
@@ -6251,9 +6265,9 @@
       <c r="K37" s="139"/>
       <c r="L37" s="118"/>
       <c r="M37" s="118"/>
-      <c r="N37" s="262"/>
-      <c r="O37" s="262"/>
-      <c r="P37" s="262"/>
+      <c r="N37" s="252"/>
+      <c r="O37" s="252"/>
+      <c r="P37" s="252"/>
       <c r="Q37" s="63"/>
       <c r="R37" s="63"/>
       <c r="S37" s="63"/>
@@ -6270,28 +6284,28 @@
       <c r="H38" s="52"/>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
-      <c r="L38" s="251"/>
-      <c r="M38" s="252"/>
-      <c r="N38" s="252"/>
-      <c r="O38" s="252"/>
-      <c r="P38" s="253"/>
+      <c r="L38" s="276"/>
+      <c r="M38" s="277"/>
+      <c r="N38" s="277"/>
+      <c r="O38" s="277"/>
+      <c r="P38" s="278"/>
     </row>
     <row r="39" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
-      <c r="B39" s="241"/>
-      <c r="C39" s="242"/>
+      <c r="B39" s="264"/>
+      <c r="C39" s="265"/>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="243"/>
+      <c r="F39" s="264"/>
+      <c r="G39" s="268"/>
       <c r="I39" s="136"/>
       <c r="J39" s="136"/>
       <c r="K39" s="70"/>
-      <c r="L39" s="254"/>
-      <c r="M39" s="255"/>
-      <c r="N39" s="255"/>
-      <c r="O39" s="255"/>
-      <c r="P39" s="256"/>
+      <c r="L39" s="279"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="257"/>
+      <c r="O39" s="257"/>
+      <c r="P39" s="280"/>
     </row>
     <row r="40" spans="1:24" s="69" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
@@ -6310,8 +6324,8 @@
       <c r="N40" s="75"/>
       <c r="O40" s="65"/>
       <c r="P40" s="66"/>
-      <c r="V40" s="239"/>
-      <c r="W40" s="240"/>
+      <c r="V40" s="266"/>
+      <c r="W40" s="267"/>
       <c r="X40" s="68"/>
     </row>
     <row r="41" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6386,13 +6400,13 @@
       <c r="G44" s="47"/>
       <c r="H44" s="86"/>
       <c r="I44" s="48"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="248"/>
+      <c r="J44" s="271"/>
+      <c r="K44" s="272"/>
+      <c r="L44" s="273"/>
       <c r="M44" s="48"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="247"/>
-      <c r="P44" s="248"/>
+      <c r="N44" s="271"/>
+      <c r="O44" s="272"/>
+      <c r="P44" s="273"/>
       <c r="V44" s="46"/>
       <c r="W44" s="72"/>
       <c r="X44" s="48"/>
@@ -6402,8 +6416,8 @@
       <c r="B45" s="75"/>
       <c r="C45" s="65"/>
       <c r="D45" s="66"/>
-      <c r="F45" s="249"/>
-      <c r="G45" s="250"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
       <c r="H45" s="66"/>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
@@ -6475,9 +6489,9 @@
       <c r="C50" s="51"/>
       <c r="D50" s="51"/>
       <c r="E50" s="118"/>
-      <c r="F50" s="244"/>
-      <c r="G50" s="245"/>
-      <c r="H50" s="245"/>
+      <c r="F50" s="269"/>
+      <c r="G50" s="270"/>
+      <c r="H50" s="270"/>
       <c r="J50" s="51"/>
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
@@ -6498,8 +6512,8 @@
     <row r="52" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="67"/>
       <c r="E52" s="66"/>
-      <c r="F52" s="241"/>
-      <c r="G52" s="243"/>
+      <c r="F52" s="264"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="68"/>
       <c r="I52" s="70"/>
       <c r="M52" s="70"/>
@@ -6517,8 +6531,8 @@
       <c r="N53" s="75"/>
       <c r="O53" s="65"/>
       <c r="P53" s="66"/>
-      <c r="V53" s="239"/>
-      <c r="W53" s="240"/>
+      <c r="V53" s="266"/>
+      <c r="W53" s="267"/>
       <c r="X53" s="68"/>
     </row>
     <row r="54" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6611,14 +6625,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="F2:J4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="V53:W53"/>
     <mergeCell ref="B39:C39"/>
@@ -6630,6 +6636,14 @@
     <mergeCell ref="N44:P44"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="L38:P39"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="F2:J4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6695,13 +6709,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="148"/>
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="265"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="255"/>
       <c r="K2" s="149"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -6709,17 +6723,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="272"/>
+      <c r="C3" s="263"/>
       <c r="D3" s="6"/>
       <c r="E3" s="148"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="267"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="258"/>
       <c r="K3" s="149"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -6731,11 +6745,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="148"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="270"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="261"/>
       <c r="K4" s="149"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -6743,10 +6757,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="257"/>
+      <c r="C5" s="247"/>
       <c r="D5" s="113"/>
       <c r="E5" s="172"/>
       <c r="F5" s="150"/>
@@ -6784,19 +6798,19 @@
     </row>
     <row r="7" spans="1:21" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="288"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="288"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="288"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -6806,23 +6820,23 @@
     </row>
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
-      <c r="B8" s="285" t="s">
+      <c r="B8" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="286"/>
-      <c r="D8" s="287"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="283"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="285" t="s">
+      <c r="F8" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="286"/>
-      <c r="H8" s="287"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="285" t="s">
+      <c r="J8" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="286"/>
-      <c r="L8" s="287"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="283"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -7004,23 +7018,23 @@
     </row>
     <row r="15" spans="1:21" s="79" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="161"/>
-      <c r="B15" s="285" t="s">
+      <c r="B15" s="281" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
+      <c r="C15" s="282"/>
+      <c r="D15" s="283"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="285" t="s">
+      <c r="F15" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="286"/>
-      <c r="H15" s="287"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="283"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="285" t="s">
+      <c r="J15" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="286"/>
-      <c r="L15" s="287"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="283"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -7186,10 +7200,10 @@
       <c r="H20" s="171"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="279" t="s">
+      <c r="K20" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="257"/>
+      <c r="L20" s="247"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -7198,15 +7212,15 @@
     </row>
     <row r="21" spans="1:21" s="94" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
-      <c r="B21" s="280" t="s">
+      <c r="B21" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
       <c r="E21" s="93"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="282"/>
-      <c r="H21" s="283"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="289"/>
       <c r="I21" s="169"/>
       <c r="J21" s="169"/>
       <c r="K21" s="169"/>
@@ -7220,11 +7234,11 @@
     </row>
     <row r="22" spans="1:21" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
-      <c r="B22" s="275" t="s">
+      <c r="B22" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="276"/>
-      <c r="D22" s="276"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="292"/>
       <c r="E22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -7339,9 +7353,9 @@
     </row>
     <row r="27" spans="1:21" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="164"/>
-      <c r="B27" s="284"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="290"/>
       <c r="E27" s="165"/>
       <c r="F27" s="165"/>
       <c r="G27" s="165"/>
@@ -7358,23 +7372,23 @@
     </row>
     <row r="28" spans="1:21" s="79" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="164"/>
-      <c r="B28" s="275" t="s">
+      <c r="B28" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="276"/>
-      <c r="D28" s="276"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
       <c r="E28" s="165"/>
       <c r="F28" s="165"/>
       <c r="G28" s="165"/>
       <c r="H28" s="165"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="273"/>
-      <c r="K28" s="274"/>
-      <c r="L28" s="274"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="294"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="273"/>
-      <c r="O28" s="274"/>
-      <c r="P28" s="274"/>
+      <c r="N28" s="293"/>
+      <c r="O28" s="294"/>
+      <c r="P28" s="294"/>
       <c r="S28" s="80"/>
       <c r="T28" s="80"/>
     </row>
@@ -7501,11 +7515,11 @@
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="164"/>
-      <c r="B34" s="275" t="s">
+      <c r="B34" s="291" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="276"/>
-      <c r="D34" s="277"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="295"/>
       <c r="E34" s="165"/>
       <c r="F34" s="165"/>
       <c r="G34" s="165"/>
@@ -7595,9 +7609,9 @@
       <c r="K37" s="50"/>
       <c r="L37" s="86"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="259"/>
-      <c r="O37" s="260"/>
-      <c r="P37" s="261"/>
+      <c r="N37" s="249"/>
+      <c r="O37" s="250"/>
+      <c r="P37" s="251"/>
       <c r="R37" s="46"/>
       <c r="S37" s="50"/>
       <c r="T37" s="48"/>
@@ -7632,11 +7646,11 @@
     </row>
     <row r="39" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="259" t="s">
+      <c r="B39" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="260"/>
-      <c r="D39" s="278"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="296"/>
       <c r="E39" s="137"/>
       <c r="F39" s="138"/>
       <c r="G39" s="47"/>
@@ -7646,9 +7660,9 @@
       <c r="K39" s="139"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
-      <c r="N39" s="262"/>
-      <c r="O39" s="262"/>
-      <c r="P39" s="262"/>
+      <c r="N39" s="252"/>
+      <c r="O39" s="252"/>
+      <c r="P39" s="252"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
@@ -7670,8 +7684,8 @@
     <row r="41" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="241"/>
-      <c r="G41" s="243"/>
+      <c r="F41" s="264"/>
+      <c r="G41" s="268"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
       <c r="M41" s="70"/>
@@ -7689,8 +7703,8 @@
       <c r="N42" s="75"/>
       <c r="O42" s="65"/>
       <c r="P42" s="66"/>
-      <c r="V42" s="239"/>
-      <c r="W42" s="240"/>
+      <c r="V42" s="266"/>
+      <c r="W42" s="267"/>
       <c r="X42" s="68"/>
     </row>
     <row r="43" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7783,6 +7797,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:D8"/>
@@ -7793,20 +7821,6 @@
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
